--- a/data/genes_identified.xlsx
+++ b/data/genes_identified.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gddtosilk" sheetId="1" r:id="rId1"/>
+    <sheet name="gddtosilk_p7" sheetId="2" r:id="rId2"/>
+    <sheet name="daystosilk" sheetId="3" r:id="rId3"/>
+    <sheet name="daystotassel" sheetId="4" r:id="rId4"/>
+    <sheet name="cobd" sheetId="6" r:id="rId5"/>
+    <sheet name="tkv" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="262">
   <si>
     <t>MEDFIX0.5</t>
   </si>
@@ -267,10 +272,544 @@
     <t>MEDFIX_BIC</t>
   </si>
   <si>
-    <t>MEDFMIX_linear</t>
-  </si>
-  <si>
-    <t>MEDFMIX_shrink</t>
+    <t>GRMZM2G079658</t>
+  </si>
+  <si>
+    <t>GRMZM5G835772</t>
+  </si>
+  <si>
+    <t>GRMZM2G082335</t>
+  </si>
+  <si>
+    <t>GRMZM2G072415</t>
+  </si>
+  <si>
+    <t>GRMZM2G085054</t>
+  </si>
+  <si>
+    <t>GRMZM2G009335</t>
+  </si>
+  <si>
+    <t>GRMZM2G568636</t>
+  </si>
+  <si>
+    <t>GRMZM5G831993</t>
+  </si>
+  <si>
+    <t>GRMZM6G202353</t>
+  </si>
+  <si>
+    <t>GRMZM2G002756</t>
+  </si>
+  <si>
+    <t>GRMZM2G027166</t>
+  </si>
+  <si>
+    <t>GRMZM2G108487</t>
+  </si>
+  <si>
+    <t>GRMZM2G118005</t>
+  </si>
+  <si>
+    <t>GRMZM2G174917</t>
+  </si>
+  <si>
+    <t>AC148152.3_FG008</t>
+  </si>
+  <si>
+    <t>GRMZM2G146041</t>
+  </si>
+  <si>
+    <t>GRMZM2G060276</t>
+  </si>
+  <si>
+    <t>AC200099.4_FG003</t>
+  </si>
+  <si>
+    <t>GRMZM2G057159</t>
+  </si>
+  <si>
+    <t>GRMZM2G071157</t>
+  </si>
+  <si>
+    <t>GRMZM2G481604</t>
+  </si>
+  <si>
+    <t>GRMZM2G427369</t>
+  </si>
+  <si>
+    <t>GRMZM5G871262</t>
+  </si>
+  <si>
+    <t>GRMZM2G104316</t>
+  </si>
+  <si>
+    <t>GRMZM2G086088</t>
+  </si>
+  <si>
+    <t>GRMZM2G117230</t>
+  </si>
+  <si>
+    <t>GRMZM2G700665</t>
+  </si>
+  <si>
+    <t>GRMZM2G018955</t>
+  </si>
+  <si>
+    <t>GRMZM2G134430</t>
+  </si>
+  <si>
+    <t>AC149475.2_FG003</t>
+  </si>
+  <si>
+    <t>MEDMIX_linear</t>
+  </si>
+  <si>
+    <t>MEDMIX_shrink</t>
+  </si>
+  <si>
+    <t>GRMZM2G331701</t>
+  </si>
+  <si>
+    <t>GRMZM2G040965</t>
+  </si>
+  <si>
+    <t>GRMZM2G178847</t>
+  </si>
+  <si>
+    <t>GRMZM2G142836</t>
+  </si>
+  <si>
+    <t>GRMZM2G108874</t>
+  </si>
+  <si>
+    <t>GRMZM2G116426</t>
+  </si>
+  <si>
+    <t>GRMZM5G821988</t>
+  </si>
+  <si>
+    <t>GRMZM2G040300</t>
+  </si>
+  <si>
+    <t>GRMZM2G160452</t>
+  </si>
+  <si>
+    <t>GRMZM2G338693</t>
+  </si>
+  <si>
+    <t>GRMZM2G032977</t>
+  </si>
+  <si>
+    <t>GRMZM2G048537</t>
+  </si>
+  <si>
+    <t>GRMZM2G094792</t>
+  </si>
+  <si>
+    <t>GRMZM2G147775</t>
+  </si>
+  <si>
+    <t>GRMZM5G860498</t>
+  </si>
+  <si>
+    <t>GRMZM2G123540</t>
+  </si>
+  <si>
+    <t>GRMZM2G177165</t>
+  </si>
+  <si>
+    <t>AC206999.1_FG002</t>
+  </si>
+  <si>
+    <t>GRMZM2G087806</t>
+  </si>
+  <si>
+    <t>GRMZM2G099305</t>
+  </si>
+  <si>
+    <t>GRMZM2G150901</t>
+  </si>
+  <si>
+    <t>GRMZM5G847530</t>
+  </si>
+  <si>
+    <t>GRMZM5G867512</t>
+  </si>
+  <si>
+    <t>GRMZM2G115875</t>
+  </si>
+  <si>
+    <t>GRMZM2G478568</t>
+  </si>
+  <si>
+    <t>GRMZM6G832911</t>
+  </si>
+  <si>
+    <t>GRMZM2G047800</t>
+  </si>
+  <si>
+    <t>GRMZM5G865298</t>
+  </si>
+  <si>
+    <t>GRMZM2G135970</t>
+  </si>
+  <si>
+    <t>GRMZM2G004157</t>
+  </si>
+  <si>
+    <t>GRMZM2G047409</t>
+  </si>
+  <si>
+    <t>GRMZM2G145204</t>
+  </si>
+  <si>
+    <t>GRMZM2G473709</t>
+  </si>
+  <si>
+    <t>GRMZM2G079281</t>
+  </si>
+  <si>
+    <t>GRMZM2G063875</t>
+  </si>
+  <si>
+    <t>GRMZM2G059556</t>
+  </si>
+  <si>
+    <t>GRMZM2G042164</t>
+  </si>
+  <si>
+    <t>GRMZM2G421899</t>
+  </si>
+  <si>
+    <t>GRMZM2G162052</t>
+  </si>
+  <si>
+    <t>GRMZM2G328742</t>
+  </si>
+  <si>
+    <t>GRMZM2G429759</t>
+  </si>
+  <si>
+    <t>AC149475.2_FG002</t>
+  </si>
+  <si>
+    <t>GRMZM2G042981</t>
+  </si>
+  <si>
+    <t>AC149828.2_FG004</t>
+  </si>
+  <si>
+    <t>GRMZM2G369481</t>
+  </si>
+  <si>
+    <t>GRMZM2G160842</t>
+  </si>
+  <si>
+    <t>GRMZM2G371721</t>
+  </si>
+  <si>
+    <t>GRMZM2G446171</t>
+  </si>
+  <si>
+    <t>GRMZM2G391364</t>
+  </si>
+  <si>
+    <t>GRMZM2G121354</t>
+  </si>
+  <si>
+    <t>GRMZM2G042181</t>
+  </si>
+  <si>
+    <t>GRMZM2G119272</t>
+  </si>
+  <si>
+    <t>GRMZM2G007306</t>
+  </si>
+  <si>
+    <t>GRMZM2G320206</t>
+  </si>
+  <si>
+    <t>GRMZM2G456000</t>
+  </si>
+  <si>
+    <t>GRMZM2G148400</t>
+  </si>
+  <si>
+    <t>GRMZM2G107620</t>
+  </si>
+  <si>
+    <t>GRMZM2G479038</t>
+  </si>
+  <si>
+    <t>GRMZM2G167164</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G20730.1 Tetratricopeptide repeat (TPR)-like superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G20730.1 Tetratricopeptide repeat (TPR)-like superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G23690.1 Polynucleotide adenylyltransferase family protein</t>
+  </si>
+  <si>
+    <t>/thx13 - Trihelix-transcription factor 13</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G55510.1 Mitochondrial import inner membrane translocase subunit Tim17/Tim22/Tim23 family protein</t>
+  </si>
+  <si>
+    <t>bx8 - benzoxazinone synthesis8/cytosolic glucosyltransferase; synthesis of cyclic hydroxamates/DIMBOA; insect resistance in young seedlings</t>
+  </si>
+  <si>
+    <t>Haloacid dehalogenase-like hydrolase (HAD) superfamily protein</t>
+  </si>
+  <si>
+    <t>ereb47 - AP2-EREBP-transcription factor 47</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G64510.1 Translation elongation factor EF1B/ribosomal protein S6 family protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G15300.1 Pentatricopeptide repeat (PPR) superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G68660.1 Ribosomal protein L12/ ATP-dependent Clp protease adaptor protein ClpS family protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G06510.1 (ATSFR2, SFR2) Glycosyl hydrolase superfamily protein</t>
+  </si>
+  <si>
+    <t>putative protein phosphatase 2C </t>
+  </si>
+  <si>
+    <t>transglutaminase 21</t>
+  </si>
+  <si>
+    <t>COP9 signalosome complex subunit 5b</t>
+  </si>
+  <si>
+    <t>/Rice best hit: LOC_Os01g12750.1 cytochrome P450 putative expressed</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G67190.1 F-box/RNI-like superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G00460.2 (ATROPGEF3, ROPGEF3) RHO guanyl-nucleotide exchange factor 3</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G77360.1 Tetratricopeptide repeat (TPR)-like superfamily protein</t>
+  </si>
+  <si>
+    <t>ARF-transcription factor 26</t>
+  </si>
+  <si>
+    <t>ARF(auxin-responsive factor)-transcription factor 26/</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G11930.2 Predicted pyridoxal phosphate-dependent enzyme YBL036C type</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: ATCG00020.1 photosystem II reaction center protein A</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G63850.1 BTB/POZ domain-containing protein</t>
+  </si>
+  <si>
+    <t>AP2-EREBP-transcription factor 47</t>
+  </si>
+  <si>
+    <t>putative ubiquitin-conjugating enzyme family</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT1G72330.1 (ALAAT2) alanine aminotransferase 2</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G72330.1 (ALAAT2) alanine aminotransferase 2</t>
+  </si>
+  <si>
+    <t>Trihelix-transcription factor 13</t>
+  </si>
+  <si>
+    <t>rap2 - rap2.7 orthologue/negative regulator of flowering time</t>
+  </si>
+  <si>
+    <t>/Rice best hit: LOC_Os01g12750.1 cytochrome P450 putative expressed</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G54610.1 Protein kinase superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G00460.2 (ATROPGEF3, ROPGEF3) RHO guanyl-nucleotide exchange factor 3</t>
+  </si>
+  <si>
+    <t>gamma-glutamyltranspeptidase 1</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G53850.1 (ATPAE1, PAE1) 20S proteasome alpha subunit E1</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G02520.1 (GF14 NU, GRF7) general regulatory factor 7</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G10250.1 (ATHSP22.0) HSP20-like chaperones superfamily protein</t>
+  </si>
+  <si>
+    <t>transglutaminase21/expression is dependent on light exposure time</t>
+  </si>
+  <si>
+    <t>COP9 signalosome complex subunit 5b </t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G03750.1 (CHR9) switch 2</t>
+  </si>
+  <si>
+    <t>rap2.7 orthologue/negative regulator of flowering time</t>
+  </si>
+  <si>
+    <t>NC domain-containing protein-related</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT5G21950.1 alpha/beta-Hydrolases superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G60240.4 (CUM2, EIF4G) eukaryotic translation initiation factor 4G</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT1G63850.1 BTB/POZ domain-containing protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G39970.1 Haloacid dehalogenase-like hydrolase (HAD) superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G25500.1 (AFH1, AHF1, ATFH1, FH1) formin homology 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> putative protein phosphatase 2C 40</t>
+  </si>
+  <si>
+    <t>/Rice best hit: LOC_Os03g16140.1 digalactosyldiacylglycerol synthase chloroplast precursor putative expressed</t>
+  </si>
+  <si>
+    <t>pco116292(520), VIP1 protein/</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G50210.1 (OLD5, QS, SUFE3) quinolinate synthase</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G72330.1 (ALAAT2) alanine aminotransferase 2</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G02520.1 (GF14 NU, GRF7) general regulatory factor 7</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G19540.1 (INDL) IND1(iron-sulfur protein required for NADH dehydrogenase)-like</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT5G15300.1 Pentatricopeptide repeat (PPR) superfamily protein</t>
+  </si>
+  <si>
+    <t>MADS-transcription factor 69</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G10250.1 (ATHSP22.0) HSP20-like chaperones superfamily protein</t>
+  </si>
+  <si>
+    <t>Endonuclease 2 (per NCBI), nuclease PA3 (per NCBI), pco102923(113)</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G09670.1 loricrin-related</t>
+  </si>
+  <si>
+    <t>actin depolymerizing factor8</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G08550.1 (ABI8, ELD1, KOB1) elongation defective 1 protein / ELD1 protein</t>
+  </si>
+  <si>
+    <t>chromatin complex subunit A 101/ chr101/chr106 double mutant caused embryo lethality with abnormalities in cell proliferation from the early stage of kernel development.</t>
+  </si>
+  <si>
+    <t>Loss of RNA-directed DNA methylation in maize chromomethylase and DDM1-type nucleosome remodeler mutants</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT3G06510.1 (ATSFR2, SFR2) Glycosyl hydrolase superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G40020.1 Myosin heavy chain-related protein</t>
+  </si>
+  <si>
+    <t>tip growth defective1/contributes to root hair elongation and drought tolerance</t>
+  </si>
+  <si>
+    <t>Genetic variation in ZmTIP1 contributes to root hair elongation and drought tolerance in maize</t>
+  </si>
+  <si>
+    <t>GNAT-transcription factor 6/</t>
+  </si>
+  <si>
+    <t>AY111500/</t>
+  </si>
+  <si>
+    <t>false DAD1/similar to Oryza and Hordeum Defender against apoptotic cell death protein (DAD-1, DAD-2 respectively)</t>
+  </si>
+  <si>
+    <t>si707014d06/</t>
+  </si>
+  <si>
+    <t>nas3 (nicotianamine synthase 3)/expressed in roots under iron sufficient conditions; function confirmed by enzymatic assay of fusion proteins raised in E. coli.</t>
+  </si>
+  <si>
+    <t>Three nicotianamine synthase genes isolated from maize are differentially regulated by iron nutritional status</t>
+  </si>
+  <si>
+    <t>Rice best hit: LOC_Os11g32030.1 sex determination protein tasselseed-2 putative expressed</t>
+  </si>
+  <si>
+    <t>Rice best hit: LOC_Os10g33210.1 peptide transporter PTR3-A putative expressed</t>
+  </si>
+  <si>
+    <t>abi40 - ABI3-VP1-transcription factor 40</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G47570.1 Leucine-rich repeat protein kinase family protein</t>
+  </si>
+  <si>
+    <t>IDP850(nicotiana lesion-inducing like)</t>
+  </si>
+  <si>
+    <t>IDP363</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT5G55130.1 (CNX5, SIR1) co-factor for nitrate reductase and xanthine dehydrogenase 5</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G62970.1 Chaperone DnaJ-domain superfamily protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT2G01650.1 (PUX2) plant UBX domain-containing protein 2</t>
+  </si>
+  <si>
+    <t>umc2698(Calmodulin)</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G21660.2 proline-rich spliceosome-associated (PSP) family protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT4G06744.1 Leucine-rich repeat (LRR) family protein</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G02170.1 (AMC1, ATMC1, ATMCPB1, LOL3, MCP1B) metacaspase 1</t>
+  </si>
+  <si>
+    <t>hyperosmolality-gated calcium-permeable channels3/</t>
+  </si>
+  <si>
+    <t>Systematic analysis of the maize osca genes revealing ZmOSCA family members involved in osmotic stress and ZmOSCA2.4 confers enhanced drought tolerance in transgenic Arabidopsis</t>
+  </si>
+  <si>
+    <t>/Arabidopsis best hit: AT1G30080.1 Glycosyl hydrolase superfamily protein</t>
   </si>
 </sst>
 </file>
@@ -370,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -393,6 +932,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -402,7 +956,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
@@ -412,6 +966,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -733,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,7 +1838,7 @@
     <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1455,7 +2013,7 @@
     <row r="120" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -1631,4 +2189,4625 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="91" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="125" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C168"/>
+  <sheetViews>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>74</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>74</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C171" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="147.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>74</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>74</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>74</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>74</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>74</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>171</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>74</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="5"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/genes_identified.xlsx
+++ b/data/genes_identified.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="gddtosilk" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="278">
   <si>
     <t>MEDFIX0.5</t>
   </si>
@@ -810,6 +810,54 @@
   </si>
   <si>
     <t>/Arabidopsis best hit: AT1G30080.1 Glycosyl hydrolase superfamily protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT1G44820.1 Peptidase M20/M25/M40 family protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G62240.1 RING/U-box superfamily protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT1G54500.1 Rubredoxin-like superfamily protein</t>
+  </si>
+  <si>
+    <t>tipd1 - tip growth defective1/contributes to root hair elongation and drought tolerance</t>
+  </si>
+  <si>
+    <t>hagtf6 (GNAT-transcription factor 6)/</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT2G42490.1 Copper amine oxidase family protein</t>
+  </si>
+  <si>
+    <t>Rice best hit: LOC_Os07g48244.1 ubiquinol-cytochrome c reductase complex 6.7 kDa protein putative expressed</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT2G37570.1 (SLT1) HSP20-like chaperones superfamily protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G03070.1 NADH-ubiquinone oxidoreductase-related</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G08980.1 Peptidase S24/S26A/S26B/S26C family protein</t>
+  </si>
+  <si>
+    <t>arid5 - ARID-transcription factor 5</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G13226.1 regulatory protein RecX family protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT3G47570.1 Leucine-rich repeat protein kinase family protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT2G36800.1 (DOGT1, UGT73C5) don-glucosyltransferase 1</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT5G03610.1 GDSL-like Lipase/Acylhydrolase superfamily protein</t>
+  </si>
+  <si>
+    <t>Arabidopsis best hit: AT2G36800.1 (DOGT1, UGT73C5) don-glucosyltransferase 1</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1004,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
@@ -968,6 +1016,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1291,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2195,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,9 +2596,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
@@ -2557,9 +2606,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
@@ -3010,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4860,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5296,9 +5343,7 @@
       <c r="B76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
@@ -5470,7 +5515,9 @@
       <c r="A111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C111" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -5493,6 +5540,9 @@
       <c r="A115" t="s">
         <v>142</v>
       </c>
+      <c r="B115" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
@@ -5514,35 +5564,47 @@
       <c r="A119" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="C123" s="2"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -5565,11 +5627,20 @@
       <c r="A127" t="s">
         <v>132</v>
       </c>
+      <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>146</v>
       </c>
+      <c r="B128" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -5619,6 +5690,9 @@
       <c r="A137" t="s">
         <v>148</v>
       </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
@@ -5637,10 +5711,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -5678,7 +5754,9 @@
       <c r="A151" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C151" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -5698,6 +5776,9 @@
       <c r="A155" t="s">
         <v>142</v>
       </c>
+      <c r="B155" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
@@ -5719,28 +5800,36 @@
       <c r="A159" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="C162" s="2"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -5763,11 +5852,17 @@
       <c r="A166" t="s">
         <v>132</v>
       </c>
+      <c r="B166" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>146</v>
       </c>
+      <c r="B167" s="10" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -5817,6 +5912,9 @@
       <c r="A176" t="s">
         <v>148</v>
       </c>
+      <c r="B176" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
@@ -5838,14 +5936,18 @@
       <c r="A181" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B181" s="6"/>
+      <c r="B181" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="C181" s="6"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B182" s="6"/>
+      <c r="B182" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="C182" s="6"/>
     </row>
   </sheetData>
@@ -5858,7 +5960,7 @@
   <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6442,14 +6544,18 @@
       <c r="A112" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C113" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -6466,11 +6572,6 @@
       </c>
       <c r="C116" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -6530,11 +6631,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B131" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>78</v>
@@ -6577,12 +6673,7 @@
         <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B140" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -6641,14 +6732,18 @@
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C154" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -6667,11 +6762,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B158" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>75</v>
@@ -6692,7 +6782,9 @@
       <c r="A162" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -6726,11 +6818,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B171" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>78</v>
@@ -6773,12 +6860,7 @@
         <v>171</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B180" t="s">
-        <v>73</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -6809,5 +6891,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>